--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89C786-8E41-1944-A787-1746D15ED163}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52675CB0-783C-994E-8BBA-A85BDF100458}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18940" yWindow="3540" windowWidth="16840" windowHeight="17440" xr2:uid="{82291118-D40B-1144-868F-8FEB87459D71}"/>
   </bookViews>
@@ -249,9 +249,6 @@
     <t>54 Sembawang Rd, Singapore 779085</t>
   </si>
   <si>
-    <t>Hotel Royal @ Queens, #02-01, 12 Queen Street,, Singapore 188553</t>
-  </si>
-  <si>
     <t>Grand Mandarina Restaurant</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>50% off one selected item when you spend S$50 or more</t>
+  </si>
+  <si>
+    <t>Hotel Royal @ Queens, #02-01, 12 Queen Street, Singapore 188553</t>
   </si>
 </sst>
 </file>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720DA00F-78F2-B84B-A15F-303829B9F2E1}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1105,7 +1105,7 @@
         <v>103.852101</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1116,13 +1116,13 @@
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14">
         <v>64411120</v>
@@ -1142,16 +1142,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>62223355</v>
@@ -1163,24 +1163,24 @@
         <v>103.840879</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
       </c>
       <c r="F16">
         <v>62197460</v>
@@ -1192,24 +1192,24 @@
         <v>103.79500299999999</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
         <v>87</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17">
         <v>64385798</v>
@@ -1221,24 +1221,24 @@
         <v>103.846656</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
         <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>64383913</v>
@@ -1250,24 +1250,24 @@
         <v>103.846915</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
         <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>63977023</v>
@@ -1279,24 +1279,24 @@
         <v>103.843913</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20">
         <v>67427910</v>
@@ -1308,24 +1308,24 @@
         <v>103.88933400000001</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
         <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21">
         <v>62216223</v>
@@ -1337,10 +1337,13 @@
         <v>103.847261</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C27:C46">
+    <sortCondition ref="C27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>